--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -1238,6 +1238,15 @@
     <t xml:space="preserve">Analogová zem</t>
   </si>
   <si>
+    <t xml:space="preserve">PT1000_2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstup pro 2. PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT1000_2-</t>
+  </si>
+  <si>
     <t xml:space="preserve">PT1000_1+</t>
   </si>
   <si>
@@ -1245,15 +1254,6 @@
   </si>
   <si>
     <t xml:space="preserve">PT1000_1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT1000_2+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vstup pro 2. PT1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT1000_2-</t>
   </si>
   <si>
     <t xml:space="preserve">DITTL1</t>
@@ -1783,7 +1783,7 @@
   </sheetPr>
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -7313,7 +7313,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -11940,8 +11940,8 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="445">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t xml:space="preserve">0,13 ~ 2,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+B2</t>
   </si>
   <si>
     <t xml:space="preserve">+ Brzda motor 2</t>
@@ -1783,7 +1786,7 @@
   </sheetPr>
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -7931,8 +7934,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7974,12 +7977,11 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f aca="false">+B2</f>
-        <v>-B2</v>
+      <c r="B3" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>236</v>
@@ -7993,7 +7995,7 @@
         <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>236</v>
@@ -8007,7 +8009,7 @@
         <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>236</v>
@@ -8018,10 +8020,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>236</v>
@@ -8032,10 +8034,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>236</v>
@@ -8096,10 +8098,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8107,13 +8109,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,7 +8129,7 @@
         <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,7 +8143,7 @@
         <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8155,7 +8157,7 @@
         <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8210,10 +8212,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,13 +8223,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8238,10 +8240,10 @@
         <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,10 +8254,10 @@
         <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8310,10 +8312,10 @@
         <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,10 +8326,10 @@
         <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8338,10 +8340,10 @@
         <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8352,10 +8354,10 @@
         <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8407,13 +8409,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8421,13 +8423,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8484,7 +8486,7 @@
         <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,7 +8500,7 @@
         <v>208</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8512,7 +8514,7 @@
         <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8526,7 +8528,7 @@
         <v>212</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8540,7 +8542,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,7 +8556,7 @@
         <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8622,10 +8624,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>206</v>
@@ -8636,10 +8638,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>206</v>
@@ -8650,10 +8652,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>206</v>
@@ -8664,10 +8666,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>206</v>
@@ -8678,10 +8680,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>206</v>
@@ -8692,10 +8694,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>206</v>
@@ -8706,7 +8708,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>210</v>
@@ -8720,10 +8722,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>206</v>
@@ -8734,10 +8736,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>206</v>
@@ -8795,10 +8797,10 @@
         <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8812,7 +8814,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,7 +8828,7 @@
         <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8883,7 +8885,7 @@
         <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,7 +8899,7 @@
         <v>208</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8911,7 +8913,7 @@
         <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,7 +8927,7 @@
         <v>212</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8939,7 +8941,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,7 +8955,7 @@
         <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9021,10 +9023,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>206</v>
@@ -9035,10 +9037,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>206</v>
@@ -9049,10 +9051,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>206</v>
@@ -9063,10 +9065,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>206</v>
@@ -9077,10 +9079,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>206</v>
@@ -9091,10 +9093,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>206</v>
@@ -9105,10 +9107,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>206</v>
@@ -9119,10 +9121,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>206</v>
@@ -9133,7 +9135,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>210</v>
@@ -9147,10 +9149,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>206</v>
@@ -9161,10 +9163,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>206</v>
@@ -9331,13 +9333,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,13 +9347,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9639,10 +9641,10 @@
         <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,10 +9655,10 @@
         <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9664,13 +9666,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9678,13 +9680,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9741,10 +9743,10 @@
         <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9755,10 +9757,10 @@
         <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9766,13 +9768,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9780,13 +9782,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9852,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>123</v>
@@ -9866,10 +9868,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -9923,13 +9925,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9937,13 +9939,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9951,13 +9953,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9965,13 +9967,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9979,13 +9981,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,13 +9995,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,13 +10009,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10021,13 +10023,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,10 +10093,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>112</v>
@@ -10105,10 +10107,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>112</v>
@@ -10119,10 +10121,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>112</v>
@@ -10133,10 +10135,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>112</v>
@@ -10191,13 +10193,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,13 +10207,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10219,13 +10221,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10233,13 +10235,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -10287,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>166</v>
@@ -10298,7 +10300,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>164</v>
@@ -10309,7 +10311,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>162</v>
@@ -10320,7 +10322,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>160</v>
@@ -10331,7 +10333,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>158</v>
@@ -10342,7 +10344,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>156</v>
@@ -10353,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>154</v>
@@ -10364,7 +10366,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>152</v>
@@ -10375,10 +10377,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10386,10 +10388,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10512,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>166</v>
@@ -10523,7 +10525,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>164</v>
@@ -10534,7 +10536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>162</v>
@@ -10545,7 +10547,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>160</v>
@@ -10556,7 +10558,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>158</v>
@@ -10567,7 +10569,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>156</v>
@@ -10578,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>154</v>
@@ -10589,7 +10591,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>152</v>
@@ -10600,10 +10602,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,10 +10613,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10657,10 +10659,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -10668,24 +10670,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10769,10 +10771,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>112</v>
@@ -10783,10 +10785,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>112</v>
@@ -10800,7 +10802,7 @@
         <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>112</v>
@@ -11134,7 +11136,7 @@
         <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11272,7 +11274,7 @@
         <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11314,7 +11316,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -11323,7 +11325,7 @@
         <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11331,7 +11333,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11340,7 +11342,7 @@
         <v>198</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11348,7 +11350,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>192</v>
@@ -11357,7 +11359,7 @@
         <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11365,7 +11367,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>191</v>
@@ -11374,7 +11376,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11425,7 +11427,7 @@
         <v>190</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11442,7 +11444,7 @@
         <v>188</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11526,7 +11528,7 @@
         <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11568,7 +11570,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -11577,7 +11579,7 @@
         <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11585,7 +11587,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11594,7 +11596,7 @@
         <v>198</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11602,7 +11604,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>192</v>
@@ -11611,7 +11613,7 @@
         <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11619,7 +11621,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>191</v>
@@ -11628,7 +11630,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11746,7 +11748,7 @@
         <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11788,7 +11790,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -11797,7 +11799,7 @@
         <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,7 +11807,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11814,7 +11816,7 @@
         <v>198</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11822,7 +11824,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>192</v>
@@ -11831,7 +11833,7 @@
         <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11839,7 +11841,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>191</v>
@@ -11848,7 +11850,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11940,7 +11942,7 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11967,10 +11969,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11981,7 +11983,7 @@
         <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,10 +11991,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12000,10 +12002,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12011,10 +12013,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12022,10 +12024,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12033,10 +12035,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12047,7 +12049,7 @@
         <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12055,10 +12057,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12069,7 +12071,7 @@
         <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12077,10 +12079,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12091,7 +12093,7 @@
         <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12495,7 +12497,7 @@
         <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12506,7 +12508,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12517,7 +12519,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12528,7 +12530,7 @@
         <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12539,7 +12541,7 @@
         <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,7 +12552,7 @@
         <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12561,7 +12563,7 @@
         <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12572,7 +12574,7 @@
         <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12580,10 +12582,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12591,10 +12593,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12602,10 +12604,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12613,10 +12615,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12627,7 +12629,7 @@
         <v>143</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12638,7 +12640,7 @@
         <v>141</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12649,7 +12651,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12660,7 +12662,7 @@
         <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12671,7 +12673,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12682,7 +12684,7 @@
         <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -12730,10 +12732,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12741,10 +12743,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12752,10 +12754,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12763,10 +12765,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12774,10 +12776,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12785,10 +12787,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12796,10 +12798,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12807,10 +12809,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -12858,10 +12860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12869,10 +12871,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12880,10 +12882,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12891,10 +12893,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12902,10 +12904,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12916,7 +12918,7 @@
         <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,10 +12926,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12935,10 +12937,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12946,10 +12948,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12957,10 +12959,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13017,10 +13019,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13028,10 +13030,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13039,10 +13041,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13050,10 +13052,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13061,10 +13063,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,10 +13074,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13083,10 +13085,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13094,10 +13096,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="59"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="60"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -68,6 +68,10 @@
     <sheet name="X6_TGS560_50_DCbus" sheetId="58" state="visible" r:id="rId60"/>
     <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="59" state="visible" r:id="rId61"/>
     <sheet name="S1_TGS560_DIP" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="LED_TGS560" sheetId="61" state="visible" r:id="rId63"/>
+    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="62" state="visible" r:id="rId64"/>
+    <sheet name="X1_DC_6pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -79,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="493">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1546,6 +1550,54 @@
   </si>
   <si>
     <t xml:space="preserve">brzdný odpor 1 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Červená LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Počet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Význam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krátké bliknutí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">podpětí Dcbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přepětí Dcbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chyba fázového napětí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vysoká interní teplota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vysoká teplota softstart modulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vysoká teplota brzdného rezistoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezervováno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zelená LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trvalý svit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zařízení připraveno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trvale vypnuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zařízení nepřipraveno</t>
   </si>
 </sst>
 </file>
@@ -1705,11 +1757,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1898,8 +1950,8 @@
   </sheetPr>
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G170" activeCellId="0" sqref="G170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G158" activeCellId="0" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11183,8 +11235,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11417,7 +11469,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11934,7 +11986,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14424,7 +14476,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14580,7 +14632,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14892,13 +14944,13 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
@@ -15138,6 +15190,582 @@
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="492">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1537,55 +1537,52 @@
     <t xml:space="preserve">0001</t>
   </si>
   <si>
+    <t xml:space="preserve">Zvolený 4 bit. kód</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Význam – volba funkce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">výchozí nastavení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezervováno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Červená LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Počet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Význam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krátké bliknutí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">podpětí Dcbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přepětí Dcbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chyba fázového napětí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vysoká interní teplota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vysoká teplota softstart modulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vysoká teplota brzdného rezistoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zelená LED</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zvolený 4 bit. kód</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Význam – volba funkce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brzdný odpor interní</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brzdný odpor 1 kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Červená LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Počet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Význam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krátké bliknutí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">podpětí Dcbus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">přepětí Dcbus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chyba fázového napětí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vysoká interní teplota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vysoká teplota softstart modulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vysoká teplota brzdného rezistoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezervováno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelená LED</t>
   </si>
   <si>
     <t xml:space="preserve">trvalý svit</t>
@@ -14945,7 +14942,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15011,23 +15008,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15035,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
@@ -15045,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
@@ -15055,7 +15041,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
@@ -15065,7 +15051,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="13"/>
@@ -15075,7 +15061,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="13"/>
@@ -15085,7 +15071,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="13"/>
@@ -15095,7 +15081,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
@@ -15105,7 +15091,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
@@ -15115,7 +15101,7 @@
         <v>1000</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
@@ -15125,7 +15111,7 @@
         <v>1001</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
@@ -15135,7 +15121,7 @@
         <v>1010</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C18" s="10"/>
       <c r="H18" s="14"/>
@@ -15146,7 +15132,7 @@
         <v>1011</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
@@ -15156,7 +15142,7 @@
         <v>1100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
@@ -15166,7 +15152,7 @@
         <v>1101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
@@ -15176,7 +15162,7 @@
         <v>1110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
@@ -15186,7 +15172,7 @@
         <v>1111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
@@ -15210,7 +15196,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15218,162 +15204,154 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>472</v>
-      </c>
+      <c r="A10" s="13"/>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
@@ -15676,10 +15654,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15714,7 +15692,7 @@
         <v>293</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15728,7 +15706,7 @@
         <v>295</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15742,7 +15720,7 @@
         <v>297</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15762,10 +15740,6 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="509">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -298,27 +298,51 @@
     <t xml:space="preserve">#X3_DO_4pin_BCZ</t>
   </si>
   <si>
+    <t xml:space="preserve">#X4_ACIN_4pin_TGS560_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X4_TGS560_24V_5pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X1_DC_6pin_TGS560_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X5_RBR_3pin_TGS560_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP-SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#S1_TGS560_DIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X2_ACIN_7pin_2636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X6_TGS560_50_DCbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_24V_BLF_2_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN-SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#S1_SWITCH_CAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">DI</t>
   </si>
   <si>
-    <t xml:space="preserve">TERM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#X3_24V_BLF_2_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN-SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#S1_SWITCH_CAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">#X5_DI_10pin_B2CF</t>
   </si>
   <si>
@@ -419,6 +443,33 @@
   </si>
   <si>
     <t xml:space="preserve">kabelové oko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVZ 7.62HP/04/180F SN BK BX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVZ 7.62HP/06/180F SN BK BX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLZ 7.62HP/03/180F SN BK BX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS03-254-04BE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCZ 3.81/05/180F SN OR BX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2636-1107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLF 5.00HC/06/180F SN OR BX           </t>
   </si>
   <si>
     <t xml:space="preserve">helping series</t>
@@ -910,6 +961,9 @@
     <t xml:space="preserve">0V napájení řízení</t>
   </si>
   <si>
+    <t xml:space="preserve">TERM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teplotní čidlo PT1000</t>
   </si>
   <si>
@@ -1580,9 +1634,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zelená LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">trvalý svit</t>
@@ -1945,10 +1996,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G158" activeCellId="0" sqref="G158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H59" activeCellId="1" sqref="C11:C13 H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3599,17 +3650,17 @@
       <c r="H59" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="6" t="e">
+      <c r="I59" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H59, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="6" t="e">
+        <v>BLF 5.00HC/06/180F SN OR BX           </v>
+      </c>
+      <c r="J59" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H59, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K59" s="6" t="e">
+        <v>Weidmüller</v>
+      </c>
+      <c r="K59" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H59, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,17 +6478,20 @@
       <c r="G159" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I159" s="6" t="e">
+      <c r="H159" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I159" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H159, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J159" s="6" t="e">
+        <v>BVZ 7.62HP/04/180F SN BK BX </v>
+      </c>
+      <c r="J159" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H159, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K159" s="6" t="e">
+        <v>Weidmüller</v>
+      </c>
+      <c r="K159" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H159, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,19 +6501,22 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I160" s="6" t="e">
+        <v>16</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H160, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J160" s="6" t="e">
+        <v>BCZ 3.81/05/180F SN OR BX </v>
+      </c>
+      <c r="J160" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H160, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K160" s="6" t="e">
+        <v>Weidmüller</v>
+      </c>
+      <c r="K160" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H160, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,47 +6526,47 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I161" s="6" t="e">
+        <v>67</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I161" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H161, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J161" s="6" t="e">
+        <v>BVZ 7.62HP/06/180F SN BK BX </v>
+      </c>
+      <c r="J161" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H161, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K161" s="6" t="e">
+        <v>Weidmüller</v>
+      </c>
+      <c r="K161" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H161, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="4" t="n">
-        <v>560</v>
-      </c>
-      <c r="E162" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F162" s="4" t="n">
-        <v>100</v>
-      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
       <c r="G162" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I162" s="6" t="e">
+        <v>74</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I162" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H162, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J162" s="6" t="e">
+        <v>BLZ 7.62HP/03/180F SN BK BX </v>
+      </c>
+      <c r="J162" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H162, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K162" s="6" t="e">
+        <v>Weidmüller</v>
+      </c>
+      <c r="K162" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H162, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,19 +6576,22 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I163" s="6" t="e">
+        <v>76</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I163" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H163, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J163" s="6" t="e">
+        <v>DS03-254-04BE </v>
+      </c>
+      <c r="J163" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H163, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K163" s="6" t="e">
+        <v>Same Sky</v>
+      </c>
+      <c r="K163" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H163, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,31 +6603,52 @@
       <c r="G164" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I164" s="6" t="e">
+      <c r="H164" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I164" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H164, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J164" s="6" t="e">
+        <v>BCZ 3.81/04/180 SN BK BX </v>
+      </c>
+      <c r="J164" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H164, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K164" s="6" t="e">
+        <v>Weidmüller</v>
+      </c>
+      <c r="K164" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H164, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
+      <c r="D165" s="4" t="n">
+        <v>560</v>
+      </c>
+      <c r="E165" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>100</v>
+      </c>
       <c r="G165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I165" s="6" t="str">
+        <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H165, conns!$A$2:$A$501, 0))</f>
+        <v>2636-1107</v>
+      </c>
+      <c r="J165" s="6" t="str">
+        <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H165, conns!$A$2:$A$501, 0))</f>
+        <v>Wago</v>
+      </c>
+      <c r="K165" s="6" t="n">
+        <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H165, conns!$A$2:$A$501, 0))</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="3"/>
@@ -6576,11 +6657,23 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I166" s="6" t="str">
+        <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H166, conns!$A$2:$A$501, 0))</f>
+        <v>kabelové oko</v>
+      </c>
+      <c r="J166" s="6" t="str">
+        <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H166, conns!$A$2:$A$501, 0))</f>
+        <v>-</v>
+      </c>
+      <c r="K166" s="6" t="n">
+        <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H166, conns!$A$2:$A$501, 0))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="3"/>
@@ -6589,31 +6682,39 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167" s="6" t="str">
+        <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H167, conns!$A$2:$A$501, 0))</f>
+        <v>BCZ 3.81/04/180 SN BK BX </v>
+      </c>
+      <c r="J167" s="6" t="str">
+        <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H167, conns!$A$2:$A$501, 0))</f>
+        <v>Weidmüller</v>
+      </c>
+      <c r="K167" s="6" t="n">
+        <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H167, conns!$A$2:$A$501, 0))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
       <c r="G168" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I168" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H168, conns!$A$2:$A$501, 0))</f>
-        <v>BLF 2.50/04/180 SN OR BX </v>
+        <v>BCZ 3.81/05/180F SN OR BX </v>
       </c>
       <c r="J168" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H168, conns!$A$2:$A$501, 0))</f>
@@ -6621,28 +6722,28 @@
       </c>
       <c r="K168" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H168, conns!$A$2:$A$501, 0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="4"/>
+      <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
       <c r="G169" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I169" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H169, conns!$A$2:$A$501, 0))</f>
-        <v>B2CF 3.50/04/180 SN OR BX </v>
+        <v>DS03-254-04BE </v>
       </c>
       <c r="J169" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H169, conns!$A$2:$A$501, 0))</f>
-        <v>Weidmüller</v>
+        <v>Same Sky</v>
       </c>
       <c r="K169" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H169, conns!$A$2:$A$501, 0))</f>
@@ -6650,45 +6751,49 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="4"/>
-      <c r="C170" s="3"/>
+      <c r="B170" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I170" s="6" t="e">
+        <v>82</v>
+      </c>
+      <c r="I170" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H170, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J170" s="6" t="e">
+        <v>BLF 2.50/04/180 SN OR BX </v>
+      </c>
+      <c r="J170" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H170, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K170" s="6" t="e">
+        <v>Weidmüller</v>
+      </c>
+      <c r="K170" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H170, conns!$A$2:$A$501, 0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="4"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I171" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H171, conns!$A$2:$A$501, 0))</f>
-        <v>B2CF 3.50/10/180 SN OR BX </v>
+        <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
       <c r="J171" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H171, conns!$A$2:$A$501, 0))</f>
@@ -6696,51 +6801,49 @@
       </c>
       <c r="K171" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H171, conns!$A$2:$A$501, 0))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="4"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I172" s="6" t="str">
+        <v>84</v>
+      </c>
+      <c r="I172" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H172, conns!$A$2:$A$501, 0))</f>
-        <v>B2CF 3.50/10/180 SN OR BX </v>
-      </c>
-      <c r="J172" s="6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J172" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H172, conns!$A$2:$A$501, 0))</f>
-        <v>Weidmüller</v>
-      </c>
-      <c r="K172" s="6" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="K172" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H172, conns!$A$2:$A$501, 0))</f>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="4"/>
-      <c r="C173" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I173" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H173, conns!$A$2:$A$501, 0))</f>
-        <v>BCZ 3.81/05/180 SN OR BX </v>
+        <v>B2CF 3.50/10/180 SN OR BX </v>
       </c>
       <c r="J173" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H173, conns!$A$2:$A$501, 0))</f>
@@ -6748,24 +6851,24 @@
       </c>
       <c r="K173" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H173, conns!$A$2:$A$501, 0))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I174" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H174, conns!$A$2:$A$501, 0))</f>
-        <v>B2CF 3.50/04/180 SN OR BX </v>
+        <v>B2CF 3.50/10/180 SN OR BX </v>
       </c>
       <c r="J174" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H174, conns!$A$2:$A$501, 0))</f>
@@ -6773,24 +6876,26 @@
       </c>
       <c r="K174" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H174, conns!$A$2:$A$501, 0))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="I175" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H175, conns!$A$2:$A$501, 0))</f>
-        <v>B2CF 3.50/22/180 SN OR BX</v>
+        <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
       <c r="J175" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H175, conns!$A$2:$A$501, 0))</f>
@@ -6798,24 +6903,24 @@
       </c>
       <c r="K175" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H175, conns!$A$2:$A$501, 0))</f>
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I176" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H176, conns!$A$2:$A$501, 0))</f>
-        <v>BCZ 3.81/08/180 SN OR BX </v>
+        <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
       <c r="J176" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H176, conns!$A$2:$A$501, 0))</f>
@@ -6823,24 +6928,24 @@
       </c>
       <c r="K176" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H176, conns!$A$2:$A$501, 0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H177" s="5" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I177" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H177, conns!$A$2:$A$501, 0))</f>
-        <v>BCZ 3.81/08/180 SN OR BX </v>
+        <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
       <c r="J177" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H177, conns!$A$2:$A$501, 0))</f>
@@ -6848,24 +6953,24 @@
       </c>
       <c r="K177" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H177, conns!$A$2:$A$501, 0))</f>
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I178" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H178, conns!$A$2:$A$501, 0))</f>
-        <v>BCZ 3.81/12/180 SN OR BX </v>
+        <v>BCZ 3.81/08/180 SN OR BX </v>
       </c>
       <c r="J178" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H178, conns!$A$2:$A$501, 0))</f>
@@ -6873,6 +6978,56 @@
       </c>
       <c r="K178" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H178, conns!$A$2:$A$501, 0))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I179" s="6" t="str">
+        <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H179, conns!$A$2:$A$501, 0))</f>
+        <v>BCZ 3.81/08/180 SN OR BX </v>
+      </c>
+      <c r="J179" s="6" t="str">
+        <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H179, conns!$A$2:$A$501, 0))</f>
+        <v>Weidmüller</v>
+      </c>
+      <c r="K179" s="6" t="n">
+        <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H179, conns!$A$2:$A$501, 0))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I180" s="6" t="str">
+        <f aca="false">INDEX(conns!$B$2:$B$501, MATCH(H180, conns!$A$2:$A$501, 0))</f>
+        <v>BCZ 3.81/12/180 SN OR BX </v>
+      </c>
+      <c r="J180" s="6" t="str">
+        <f aca="false">INDEX(conns!$C$2:$C$501, MATCH(H180, conns!$A$2:$A$501, 0))</f>
+        <v>Weidmüller</v>
+      </c>
+      <c r="K180" s="6" t="n">
+        <f aca="false">INDEX(conns!$D$2:$D$501, MATCH(H180, conns!$A$2:$A$501, 0))</f>
         <v>12</v>
       </c>
     </row>
@@ -6922,20 +7077,20 @@
     <mergeCell ref="F136:F144"/>
     <mergeCell ref="E145:E155"/>
     <mergeCell ref="F145:F155"/>
-    <mergeCell ref="B156:B167"/>
-    <mergeCell ref="C156:C167"/>
+    <mergeCell ref="B156:B169"/>
+    <mergeCell ref="C156:C169"/>
     <mergeCell ref="D156:D158"/>
     <mergeCell ref="E156:E158"/>
     <mergeCell ref="F156:F158"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="E162:E167"/>
-    <mergeCell ref="F162:F167"/>
-    <mergeCell ref="B168:B178"/>
-    <mergeCell ref="C168:F172"/>
-    <mergeCell ref="C173:F178"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="E159:E164"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="D165:D169"/>
+    <mergeCell ref="E165:E169"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="B170:B180"/>
+    <mergeCell ref="C170:F174"/>
+    <mergeCell ref="C175:F180"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" location="X1_24V_5pin_Microlock!A1" display="#X1_24V_5pin_Microlock"/>
@@ -7082,17 +7237,28 @@
     <hyperlink ref="H156" location="X1_ACIN_PC5!A1" display="#X1_ACIN_PC5"/>
     <hyperlink ref="H157" location="X2_DC_8pin_PC5!A1" display="#X2_DC_8pin_PC5"/>
     <hyperlink ref="H158" location="X3_DO_4pin_BCZ!A1" display="#X3_DO_4pin_BCZ"/>
-    <hyperlink ref="H168" location="X3_24V_BLF_2_5!A1" display="#X3_24V_BLF_2_5"/>
-    <hyperlink ref="H169" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
-    <hyperlink ref="H170" location="S1_SWITCH_CAN!A1" display="#S1_SWITCH_CAN"/>
-    <hyperlink ref="H171" location="X5_DI_10pin_B2CF!A1" display="#X5_DI_10pin_B2CF"/>
-    <hyperlink ref="H172" location="X10_DO_10pin_B2CF!A1" display="#X10_DO_10pin_B2CF"/>
-    <hyperlink ref="H173" location="X1_24V_5pin_BCZ_TGM!A1" display="#X1_24V_5pin_BCZ_TGM"/>
-    <hyperlink ref="H174" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
-    <hyperlink ref="H175" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
-    <hyperlink ref="H176" location="X6_FB1_8pin_B2CF_TGM!A1" display="#X6_FB1_8pin_B2CF_TGM"/>
-    <hyperlink ref="H177" location="X7_FB2_8pin_B2CF_TGM!A1" display="#X7_FB2_8pin_B2CF_TGM"/>
-    <hyperlink ref="H178" location="X5_FBE_12pin_B2CF_TGM!A1" display="#X5_FBE_12pin_B2CF_TGM"/>
+    <hyperlink ref="H159" location="X4_ACIN_4pin_TGS560_25!A1" display="#X4_ACIN_4pin_TGS560_25"/>
+    <hyperlink ref="H160" location="X4_TGS560_24V_5pin_BCZ!A1" display="#X4_TGS560_24V_5pin_BCZ"/>
+    <hyperlink ref="H161" location="X1_DC_6pin_TGS560_25!A1" display="#X1_DC_6pin_TGS560_25"/>
+    <hyperlink ref="H162" location="X5_RBR_3pin_TGS560_25!A1" display="#X5_RBR_3pin_TGS560_25"/>
+    <hyperlink ref="H163" location="S1_TGS560_DIP!A1" display="#S1_TGS560_DIP"/>
+    <hyperlink ref="H164" location="X3_DO_4pin_BCZ!A1" display="#X3_DO_4pin_BCZ"/>
+    <hyperlink ref="H165" location="X2_ACIN_7pin_2636!A1" display="#X2_ACIN_7pin_2636"/>
+    <hyperlink ref="H166" location="X6_TGS560_50_DCbus!A1" display="#X6_TGS560_50_DCbus"/>
+    <hyperlink ref="H167" location="X3_DO_4pin_BCZ!A1" display="#X3_DO_4pin_BCZ"/>
+    <hyperlink ref="H168" location="X4_TGS560_24V_5pin_BCZ!A1" display="#X4_TGS560_24V_5pin_BCZ"/>
+    <hyperlink ref="H169" location="S1_TGS560_DIP!A1" display="#S1_TGS560_DIP"/>
+    <hyperlink ref="H170" location="X3_24V_BLF_2_5!A1" display="#X3_24V_BLF_2_5"/>
+    <hyperlink ref="H171" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H172" location="S1_SWITCH_CAN!A1" display="#S1_SWITCH_CAN"/>
+    <hyperlink ref="H173" location="X5_DI_10pin_B2CF!A1" display="#X5_DI_10pin_B2CF"/>
+    <hyperlink ref="H174" location="X10_DO_10pin_B2CF!A1" display="#X10_DO_10pin_B2CF"/>
+    <hyperlink ref="H175" location="X1_24V_5pin_BCZ_TGM!A1" display="#X1_24V_5pin_BCZ_TGM"/>
+    <hyperlink ref="H176" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H177" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H178" location="X6_FB1_8pin_B2CF_TGM!A1" display="#X6_FB1_8pin_B2CF_TGM"/>
+    <hyperlink ref="H179" location="X7_FB2_8pin_B2CF_TGM!A1" display="#X7_FB2_8pin_B2CF_TGM"/>
+    <hyperlink ref="H180" location="X5_FBE_12pin_B2CF_TGM!A1" display="#X5_FBE_12pin_B2CF_TGM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7112,7 +7278,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="1" sqref="C11:C13 D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7124,16 +7290,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,13 +7307,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7155,13 +7321,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7169,13 +7335,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,13 +7349,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7197,13 +7363,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,13 +7377,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,13 +7391,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,13 +7405,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,7 +7436,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7282,16 +7448,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7299,13 +7465,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7313,13 +7479,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,13 +7493,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,13 +7507,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,13 +7521,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7369,13 +7535,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,7 +7566,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C11:C13 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7412,16 +7578,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7429,13 +7595,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,13 +7609,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,13 +7623,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,13 +7637,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,13 +7651,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,13 +7665,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7530,7 +7696,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="C11:C13 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7542,16 +7708,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,13 +7725,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,13 +7739,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7587,13 +7753,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7601,13 +7767,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,13 +7781,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7643,7 +7809,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7655,16 +7821,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7672,13 +7838,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,13 +7852,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,7 +7883,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C11:C13 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7729,16 +7895,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7746,13 +7912,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7760,13 +7926,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7774,13 +7940,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,7 +7971,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="C11:C13 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7817,16 +7983,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,13 +8000,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,13 +8014,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,13 +8028,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7876,13 +8042,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7904,7 +8070,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="C11:C13 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7916,16 +8082,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,13 +8099,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,13 +8113,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,13 +8127,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,7 +8158,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="C11:C13 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8004,16 +8170,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8021,13 +8187,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8035,13 +8201,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8049,13 +8215,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,13 +8229,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,7 +8260,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="C11:C13 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8106,16 +8272,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,13 +8289,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8137,13 +8303,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8151,13 +8317,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,13 +8331,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,8 +8361,8 @@
   </sheetPr>
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="1" sqref="C11:C13 D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8212,7 +8378,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -8221,7 +8387,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8232,7 +8398,7 @@
         <v>5055700501</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>5</v>
@@ -8243,10 +8409,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>22</v>
@@ -8257,10 +8423,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>4</v>
@@ -8271,10 +8437,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>8</v>
@@ -8285,10 +8451,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>8</v>
@@ -8299,10 +8465,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>12</v>
@@ -8313,10 +8479,10 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>5</v>
@@ -8327,10 +8493,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>6</v>
@@ -8341,10 +8507,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>6</v>
@@ -8355,10 +8521,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2</v>
@@ -8369,10 +8535,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>6</v>
@@ -8383,10 +8549,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>10</v>
@@ -8397,10 +8563,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>6</v>
@@ -8411,10 +8577,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>12</v>
@@ -8425,10 +8591,10 @@
         <v>57</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2</v>
@@ -8439,10 +8605,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2</v>
@@ -8453,7 +8619,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>65</v>
@@ -8467,7 +8633,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -8481,7 +8647,7 @@
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>65</v>
@@ -8495,10 +8661,10 @@
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>8</v>
@@ -8509,10 +8675,10 @@
         <v>68</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>8</v>
@@ -8523,10 +8689,10 @@
         <v>70</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>4</v>
@@ -8534,13 +8700,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>4</v>
@@ -8551,10 +8717,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>4</v>
@@ -8562,13 +8728,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>10</v>
@@ -8576,13 +8742,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>10</v>
@@ -8590,13 +8756,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>5</v>
@@ -8607,10 +8773,10 @@
         <v>47</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>3</v>
@@ -8618,13 +8784,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>8</v>
@@ -8632,13 +8798,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>8</v>
@@ -8646,13 +8812,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>12</v>
@@ -8663,7 +8829,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>65</v>
@@ -8677,7 +8843,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>65</v>
@@ -8691,7 +8857,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>65</v>
@@ -8705,7 +8871,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>65</v>
@@ -8719,7 +8885,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>65</v>
@@ -8733,7 +8899,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>65</v>
@@ -8750,7 +8916,7 @@
         <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>6</v>
@@ -8764,7 +8930,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>6</v>
@@ -8778,15 +8944,127 @@
         <v>56</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>3</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8910,6 +9188,14 @@
     <hyperlink ref="A39" location="X3_M1_6pin_BLZ__7_62!A1" display="#X3_M1_6pin_BLZ__7_62"/>
     <hyperlink ref="A40" location="X4_M2_6pin_BLZ__7_62!A1" display="#X4_M2_6pin_BLZ__7_62"/>
     <hyperlink ref="A41" location="X2_560_DC_3pin_BLZ__7_62!A1" display="#X2_560_DC_3pin_BLZ__7_62"/>
+    <hyperlink ref="A42" location="X4_ACIN_4pin_TGS560_25!A1" display="#X4_ACIN_4pin_TGS560_25"/>
+    <hyperlink ref="A43" location="X1_DC_6pin_TGS560_25!A1" display="#X1_DC_6pin_TGS560_25"/>
+    <hyperlink ref="A44" location="X5_RBR_3pin_TGS560_25!A1" display="#X5_RBR_3pin_TGS560_25"/>
+    <hyperlink ref="A45" location="S1_TGS560_DIP!A1" display="#S1_TGS560_DIP"/>
+    <hyperlink ref="A46" location="X4_TGS560_24V_5pin_BCZ!A1" display="#X4_TGS560_24V_5pin_BCZ"/>
+    <hyperlink ref="A47" location="X2_ACIN_7pin_2636!A1" display="#X2_ACIN_7pin_2636"/>
+    <hyperlink ref="A48" location="X6_TGS560_50_DCbus!A1" display="#X6_TGS560_50_DCbus"/>
+    <hyperlink ref="A49" location="XBR_BR_6pin_BLF!A1" display="#XBR_BR_6pin_BLF"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8929,7 +9215,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C11:C13 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8941,16 +9227,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,13 +9244,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8972,13 +9258,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8986,13 +9272,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9000,13 +9286,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,13 +9300,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9028,13 +9314,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9059,7 +9345,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="C11:C13 D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9072,16 +9358,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9089,13 +9375,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9103,13 +9389,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,13 +9403,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9131,13 +9417,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9145,13 +9431,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9173,7 +9459,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="C11:C13 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9186,16 +9472,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9203,13 +9489,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,13 +9503,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,13 +9517,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9245,13 +9531,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9273,7 +9559,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="C11:C13 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9286,16 +9572,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,13 +9589,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9317,13 +9603,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,13 +9617,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,13 +9631,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9373,7 +9659,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+      <selection pane="topLeft" activeCell="H44" activeCellId="1" sqref="C11:C13 H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9386,16 +9672,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9403,13 +9689,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9417,13 +9703,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9445,7 +9731,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="C11:C13 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9457,16 +9743,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9474,13 +9760,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9488,13 +9774,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9502,13 +9788,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9516,13 +9802,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9530,13 +9816,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9544,13 +9830,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9575,7 +9861,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+      <selection pane="topLeft" activeCell="E42" activeCellId="1" sqref="C11:C13 E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9587,16 +9873,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9604,13 +9890,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9618,13 +9904,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9632,13 +9918,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9646,13 +9932,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9660,13 +9946,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9674,13 +9960,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9688,13 +9974,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9702,13 +9988,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9716,13 +10002,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9730,13 +10016,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9761,7 +10047,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="C11:C13 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9771,16 +10057,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9788,13 +10074,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9802,13 +10088,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9816,13 +10102,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -9844,7 +10130,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="1" sqref="C11:C13 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9856,16 +10142,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9873,13 +10159,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9887,13 +10173,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9901,13 +10187,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9915,13 +10201,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9929,13 +10215,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,13 +10229,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9974,7 +10260,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="C11:C13 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9984,16 +10270,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10001,13 +10287,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10015,13 +10301,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,13 +10315,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10057,7 +10343,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="C11:C13 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10069,16 +10355,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10086,13 +10372,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,13 +10386,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10114,13 +10400,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10128,13 +10414,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10142,13 +10428,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -10170,7 +10456,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="1" sqref="C11:C13 L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10182,16 +10468,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10199,13 +10485,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10213,13 +10499,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,13 +10513,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10241,13 +10527,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10255,13 +10541,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,13 +10555,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10300,7 +10586,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="1" sqref="C11:C13 J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10312,16 +10598,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10329,13 +10615,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10343,13 +10629,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,13 +10643,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10371,13 +10657,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10385,13 +10671,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,13 +10685,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10430,7 +10716,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="C11:C13 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10442,16 +10728,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10459,13 +10745,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10473,13 +10759,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10487,13 +10773,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,13 +10787,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10515,13 +10801,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10529,13 +10815,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10543,13 +10829,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10557,13 +10843,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10571,13 +10857,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10585,13 +10871,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10599,13 +10885,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10613,13 +10899,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10641,7 +10927,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10653,16 +10939,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,13 +10956,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10684,13 +10970,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10742,7 +11028,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10754,16 +11040,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10771,13 +11057,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10785,13 +11071,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10799,13 +11085,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10813,13 +11099,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10844,7 +11130,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="C11:C13 E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10856,16 +11142,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10873,13 +11159,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10887,13 +11173,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10901,13 +11187,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10915,13 +11201,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10946,7 +11232,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="C11:C13 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10958,16 +11244,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10975,13 +11261,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,13 +11275,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11003,13 +11289,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,13 +11303,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11048,7 +11334,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="1" sqref="C11:C13 A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11060,16 +11346,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,13 +11363,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,13 +11377,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11105,13 +11391,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11119,13 +11405,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11150,7 +11436,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C11:C13 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11160,16 +11446,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11177,13 +11463,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11191,13 +11477,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,13 +11491,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -11233,7 +11519,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C11:C13 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11245,16 +11531,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11262,13 +11548,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11276,13 +11562,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11290,13 +11576,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11304,13 +11590,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11318,13 +11604,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11332,13 +11618,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11346,13 +11632,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,13 +11646,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11400,23 +11686,23 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11424,13 +11710,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11438,13 +11724,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -11466,7 +11752,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11479,16 +11765,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11496,13 +11782,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11510,13 +11796,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11524,13 +11810,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11538,13 +11824,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -11566,7 +11852,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="1" sqref="C11:C13 E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11579,16 +11865,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11596,13 +11882,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11610,13 +11896,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,13 +11910,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11638,13 +11924,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -11666,7 +11952,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="C11:C13 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11678,13 +11964,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11692,10 +11978,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11703,10 +11989,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11714,10 +12000,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11725,10 +12011,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11736,10 +12022,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11747,10 +12033,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11758,10 +12044,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11769,10 +12055,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11780,10 +12066,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11791,10 +12077,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11825,7 +12111,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="C11:C13 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11837,13 +12123,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11851,10 +12137,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11862,10 +12148,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11873,10 +12159,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11884,10 +12170,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11895,10 +12181,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11906,10 +12192,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11917,10 +12203,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11928,10 +12214,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11939,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11950,10 +12236,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11984,7 +12270,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11996,35 +12282,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12079,7 +12365,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="1" sqref="C11:C13 P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12091,16 +12377,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12108,13 +12394,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12122,13 +12408,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12136,13 +12422,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12150,13 +12436,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12164,13 +12450,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -12192,7 +12478,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="C11:C13 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12203,10 +12489,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12214,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12222,7 +12508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12230,7 +12516,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12238,7 +12524,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12246,7 +12532,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12254,7 +12540,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12262,7 +12548,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12270,7 +12556,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12278,7 +12564,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12286,7 +12572,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12294,7 +12580,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12302,7 +12588,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12324,7 +12610,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="C11:C13 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12336,13 +12622,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12350,10 +12636,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12361,10 +12647,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12372,10 +12658,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12383,10 +12669,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12394,10 +12680,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12405,10 +12691,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12416,10 +12702,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12427,10 +12713,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12455,7 +12741,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="C11:C13 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12467,13 +12753,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12481,10 +12767,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12492,10 +12778,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12503,10 +12789,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12514,10 +12800,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12525,10 +12811,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12536,10 +12822,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12547,10 +12833,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12558,10 +12844,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12586,7 +12872,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="C11:C13 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12599,19 +12885,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12619,13 +12905,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>65</v>
@@ -12636,13 +12922,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>65</v>
@@ -12653,16 +12939,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12670,16 +12956,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12687,16 +12973,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12704,16 +12990,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12724,7 +13010,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -12741,7 +13027,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -12755,16 +13041,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12772,16 +13058,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12789,16 +13075,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12806,16 +13092,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12840,7 +13126,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="C11:C13 F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12851,16 +13137,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12868,13 +13154,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12882,13 +13168,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12896,13 +13182,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12910,13 +13196,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,13 +13210,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12938,13 +13224,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12952,13 +13238,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12966,13 +13252,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12980,13 +13266,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12994,13 +13280,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13008,13 +13294,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13022,13 +13308,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13036,13 +13322,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13050,13 +13336,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13064,13 +13350,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13078,13 +13364,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13092,13 +13378,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13106,13 +13392,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,13 +13406,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13134,13 +13420,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13148,13 +13434,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13162,13 +13448,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -13190,7 +13476,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="C11:C13 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13203,19 +13489,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13223,16 +13509,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13240,16 +13526,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13257,16 +13543,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13274,16 +13560,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13291,16 +13577,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13308,16 +13594,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13328,7 +13614,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -13345,7 +13631,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -13359,16 +13645,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13376,16 +13662,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13410,7 +13696,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="C11:C13 J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13423,19 +13709,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13443,16 +13729,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13460,16 +13746,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13477,16 +13763,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13494,16 +13780,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13511,16 +13797,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13528,16 +13814,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13548,7 +13834,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -13565,7 +13851,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -13579,16 +13865,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13596,16 +13882,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13630,7 +13916,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="C11:C13 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13642,13 +13928,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13656,10 +13942,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13667,10 +13953,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13678,10 +13964,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13689,10 +13975,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13700,10 +13986,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13711,10 +13997,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13722,10 +14008,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13733,10 +14019,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13744,10 +14030,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13755,10 +14041,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13766,10 +14052,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13777,10 +14063,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13805,7 +14091,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="C11:C13 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13817,13 +14103,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13831,10 +14117,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13842,10 +14128,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13853,10 +14139,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13864,10 +14150,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13875,10 +14161,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13886,10 +14172,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13897,10 +14183,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13908,10 +14194,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13919,10 +14205,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13930,10 +14216,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13941,10 +14227,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13952,10 +14238,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13963,10 +14249,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13974,10 +14260,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13985,10 +14271,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13996,10 +14282,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14007,10 +14293,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14018,10 +14304,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -14043,7 +14329,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14055,13 +14341,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14069,10 +14355,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14080,10 +14366,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14091,10 +14377,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14102,10 +14388,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14113,10 +14399,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14124,10 +14410,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14135,10 +14421,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14146,10 +14432,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -14171,7 +14457,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="C11:C13 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14183,13 +14469,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14197,10 +14483,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14208,10 +14494,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14219,10 +14505,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14230,10 +14516,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14241,10 +14527,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14252,10 +14538,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14263,10 +14549,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14274,10 +14560,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14285,10 +14571,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14296,10 +14582,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14330,7 +14616,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14342,13 +14628,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14356,10 +14642,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14367,10 +14653,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14378,10 +14664,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14389,10 +14675,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14400,10 +14686,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14411,10 +14697,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14422,10 +14708,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14433,10 +14719,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14473,7 +14759,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C11:C13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14485,16 +14771,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14502,13 +14788,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14516,13 +14802,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14530,13 +14816,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14544,13 +14830,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14558,13 +14844,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14572,13 +14858,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14586,13 +14872,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14629,7 +14915,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C11:C13 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14641,16 +14927,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14658,13 +14944,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14672,13 +14958,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14730,7 +15016,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="1" sqref="C11:C13 K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14743,16 +15029,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14760,13 +15046,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14774,13 +15060,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14788,13 +15074,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14802,13 +15088,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14816,13 +15102,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -14844,7 +15130,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14855,16 +15141,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14872,13 +15158,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14886,13 +15172,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14900,13 +15186,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14914,13 +15200,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -14942,7 +15228,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C11:C13 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14955,65 +15241,65 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15021,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
@@ -15031,7 +15317,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
@@ -15041,7 +15327,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
@@ -15051,7 +15337,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="13"/>
@@ -15061,7 +15347,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="13"/>
@@ -15071,7 +15357,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="13"/>
@@ -15081,7 +15367,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
@@ -15091,7 +15377,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
@@ -15101,7 +15387,7 @@
         <v>1000</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
@@ -15111,7 +15397,7 @@
         <v>1001</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
@@ -15121,7 +15407,7 @@
         <v>1010</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="C18" s="10"/>
       <c r="H18" s="14"/>
@@ -15132,7 +15418,7 @@
         <v>1011</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
@@ -15142,7 +15428,7 @@
         <v>1100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
@@ -15152,7 +15438,7 @@
         <v>1101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
@@ -15162,7 +15448,7 @@
         <v>1110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
@@ -15172,7 +15458,7 @@
         <v>1111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
@@ -15196,7 +15482,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15209,105 +15495,105 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
@@ -15319,39 +15605,30 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
@@ -15407,7 +15684,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="C11:C13 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15419,16 +15696,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15436,13 +15713,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15450,13 +15727,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15464,13 +15741,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15478,13 +15755,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15521,7 +15798,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="C11:C13 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15533,16 +15810,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15550,13 +15827,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15564,13 +15841,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15578,13 +15855,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15592,13 +15869,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15606,13 +15883,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15620,13 +15897,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15657,7 +15934,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C11:C13 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15669,16 +15946,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15686,13 +15963,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15700,13 +15977,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15714,13 +15991,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15760,7 +16037,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C11:C13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15770,26 +16047,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -15811,7 +16088,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15823,16 +16100,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15840,13 +16117,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15854,13 +16131,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15868,13 +16145,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15882,13 +16159,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15896,13 +16173,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15910,13 +16187,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15924,13 +16201,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15938,13 +16215,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15952,13 +16229,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15966,13 +16243,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15980,13 +16257,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15994,13 +16271,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16025,7 +16302,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16037,16 +16314,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16054,13 +16331,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16068,13 +16345,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16082,13 +16359,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16096,13 +16373,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16110,13 +16387,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16124,13 +16401,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16138,13 +16415,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16152,13 +16429,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="59"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="60"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="524">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1672,6 +1672,12 @@
     <t xml:space="preserve">vysoká teplota brzdného rezistoru</t>
   </si>
   <si>
+    <t xml:space="preserve">trvale svítí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">podpětí DCbus + chyba fázového napětí. Softstart odpojen. Bez dalších chyb.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zelená LED</t>
   </si>
   <si>
@@ -1691,11 +1697,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1816,7 +1821,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,7 +1841,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1844,7 +1849,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -17443,7 +17448,7 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -17695,10 +17700,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17815,26 +17820,29 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
+      <c r="A10" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="A11" s="13"/>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
@@ -17850,6 +17858,12 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
     </row>
@@ -17874,12 +17888,16 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,73 +5,74 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="60"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="conns" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="X1_24V_5pin_BCZ" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="X2_48_DC_1778065" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="X8_IO_22pin_B2CF" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="X10_CAN_4pin_B2CF" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="LEDsigAx12" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="X5_FBE_12pin_B2CF" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="X6_FB1_8pin_B2CF" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="X7_FB2_8pin_B2CF" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="X3_M1_6pin_BLZP" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="X4_M2_6pin_BLZP" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="X1_24V_5pin_Microlock" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="X3_DCbus_2pin_pressfit" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="X3_M1_3pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="X4_BR_4pin_Microlock" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="X3_M1_4pin_wago_2626" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="X4_M2_4pin_wago_2626" sheetId="19" state="visible" r:id="rId21"/>
-    <sheet name="XBR_BR_6pin_BLF" sheetId="20" state="visible" r:id="rId22"/>
-    <sheet name="X1_24V_5pin_Microfit" sheetId="21" state="visible" r:id="rId23"/>
-    <sheet name="P7_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId24"/>
-    <sheet name="P8_BR_4pin_Microfit" sheetId="23" state="visible" r:id="rId25"/>
-    <sheet name="P3_Term_2pin_Microfit" sheetId="24" state="visible" r:id="rId26"/>
-    <sheet name="X4_M1_6pin_SLS" sheetId="25" state="visible" r:id="rId27"/>
-    <sheet name="X2_PWR_10pin_BLZP" sheetId="26" state="visible" r:id="rId28"/>
-    <sheet name="X2_320_DC_1778078" sheetId="27" state="visible" r:id="rId29"/>
-    <sheet name="X4_M1_6pin_BLF" sheetId="28" state="visible" r:id="rId30"/>
-    <sheet name="X2_560_DC_3pin_BLZ__7_62" sheetId="29" state="visible" r:id="rId31"/>
-    <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="30" state="visible" r:id="rId32"/>
-    <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="31" state="visible" r:id="rId33"/>
-    <sheet name="X2_PWR_12pin_BLZ" sheetId="32" state="visible" r:id="rId34"/>
-    <sheet name="X2_D560DCbus" sheetId="33" state="visible" r:id="rId35"/>
-    <sheet name="X3_M1_4pin_wago_2636" sheetId="34" state="visible" r:id="rId36"/>
-    <sheet name="X4_M2_4pin_wago_2636" sheetId="35" state="visible" r:id="rId37"/>
-    <sheet name="X14_BR1_4pin_LSF" sheetId="36" state="visible" r:id="rId38"/>
-    <sheet name="X15_BR2_4pin_LSF" sheetId="37" state="visible" r:id="rId39"/>
-    <sheet name="X1_ACIN_PC5" sheetId="38" state="visible" r:id="rId40"/>
-    <sheet name="X2_DC_8pin_PC5" sheetId="39" state="visible" r:id="rId41"/>
-    <sheet name="X3_DO_4pin_BCZ" sheetId="40" state="visible" r:id="rId42"/>
-    <sheet name="X3_24V_BLF_2_5" sheetId="41" state="visible" r:id="rId43"/>
-    <sheet name="X5_DI_10pin_B2CF" sheetId="42" state="visible" r:id="rId44"/>
-    <sheet name="X10_DO_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
-    <sheet name="S1_SWITCH_CAN" sheetId="44" state="visible" r:id="rId46"/>
-    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="45" state="visible" r:id="rId47"/>
-    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="46" state="visible" r:id="rId48"/>
-    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="47" state="visible" r:id="rId49"/>
-    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
-    <sheet name="X4_FBE_12pin_ClikMate" sheetId="49" state="visible" r:id="rId51"/>
-    <sheet name="X5_FB1_10pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
-    <sheet name="X6_FB2_10pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
-    <sheet name="X7_AIN_12pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
-    <sheet name="X8_DIO_18pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
-    <sheet name="X10_CAN_8pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
-    <sheet name="X11_FB3_10pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
-    <sheet name="X12_UDP_8pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
-    <sheet name="X2_ACIN_7pin_2636" sheetId="57" state="visible" r:id="rId59"/>
-    <sheet name="X6_TGS560_50_DCbus" sheetId="58" state="visible" r:id="rId60"/>
-    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="59" state="visible" r:id="rId61"/>
-    <sheet name="S1_TGS560_DIP" sheetId="60" state="visible" r:id="rId62"/>
-    <sheet name="LED_TGS560" sheetId="61" state="visible" r:id="rId63"/>
-    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="X1_DC_6pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_24V_5pin_BCZ_D4850" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="X2_48_DC_1778065" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="X8_IO_22pin_B2CF" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="X10_CAN_4pin_B2CF" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="LEDsigAx12" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="X5_FBE_12pin_B2CF" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="X6_FB1_8pin_B2CF" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="X7_FB2_8pin_B2CF" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="X3_M1_6pin_BLZP" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="X4_M2_6pin_BLZP" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="X1_24V_5pin_Microlock" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="X3_DCbus_2pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="X3_M1_3pin_pressfit" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="X4_BR_4pin_Microlock" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="X3_M1_4pin_wago_2626" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="X4_M2_4pin_wago_2626" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="XBR_BR_6pin_BLF" sheetId="21" state="visible" r:id="rId23"/>
+    <sheet name="X1_24V_5pin_Microfit" sheetId="22" state="visible" r:id="rId24"/>
+    <sheet name="P7_BR_4pin_Microfit" sheetId="23" state="visible" r:id="rId25"/>
+    <sheet name="P8_BR_4pin_Microfit" sheetId="24" state="visible" r:id="rId26"/>
+    <sheet name="P3_Term_2pin_Microfit" sheetId="25" state="visible" r:id="rId27"/>
+    <sheet name="X4_M1_6pin_SLS" sheetId="26" state="visible" r:id="rId28"/>
+    <sheet name="X2_PWR_10pin_BLZP" sheetId="27" state="visible" r:id="rId29"/>
+    <sheet name="X2_320_DC_1778078" sheetId="28" state="visible" r:id="rId30"/>
+    <sheet name="X4_M1_6pin_BLF" sheetId="29" state="visible" r:id="rId31"/>
+    <sheet name="X2_560_DC_3pin_BLZ__7_62" sheetId="30" state="visible" r:id="rId32"/>
+    <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="31" state="visible" r:id="rId33"/>
+    <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="32" state="visible" r:id="rId34"/>
+    <sheet name="X2_PWR_12pin_BLZ" sheetId="33" state="visible" r:id="rId35"/>
+    <sheet name="X2_D560DCbus" sheetId="34" state="visible" r:id="rId36"/>
+    <sheet name="X3_M1_4pin_wago_2636" sheetId="35" state="visible" r:id="rId37"/>
+    <sheet name="X4_M2_4pin_wago_2636" sheetId="36" state="visible" r:id="rId38"/>
+    <sheet name="X14_BR1_4pin_LSF" sheetId="37" state="visible" r:id="rId39"/>
+    <sheet name="X15_BR2_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
+    <sheet name="X1_ACIN_PC5" sheetId="39" state="visible" r:id="rId41"/>
+    <sheet name="X2_DC_8pin_PC5" sheetId="40" state="visible" r:id="rId42"/>
+    <sheet name="X3_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="X3_24V_BLF_2_5" sheetId="42" state="visible" r:id="rId44"/>
+    <sheet name="X5_DI_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
+    <sheet name="X10_DO_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
+    <sheet name="S1_SWITCH_CAN" sheetId="45" state="visible" r:id="rId47"/>
+    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="46" state="visible" r:id="rId48"/>
+    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="47" state="visible" r:id="rId49"/>
+    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
+    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="49" state="visible" r:id="rId51"/>
+    <sheet name="X4_FBE_12pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
+    <sheet name="X5_FB1_10pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
+    <sheet name="X6_FB2_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
+    <sheet name="X7_AIN_12pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
+    <sheet name="X8_DIO_18pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
+    <sheet name="X10_CAN_8pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
+    <sheet name="X11_FB3_10pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
+    <sheet name="X12_UDP_8pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
+    <sheet name="X2_ACIN_7pin_2636" sheetId="58" state="visible" r:id="rId60"/>
+    <sheet name="X6_TGS560_50_DCbus" sheetId="59" state="visible" r:id="rId61"/>
+    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="S1_TGS560_DIP" sheetId="61" state="visible" r:id="rId63"/>
+    <sheet name="LED_TGS560" sheetId="62" state="visible" r:id="rId64"/>
+    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="X1_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="524">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -541,6 +542,12 @@
     <t xml:space="preserve">GND (0 V)</t>
   </si>
   <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nezapojeno</t>
+  </si>
+  <si>
     <t xml:space="preserve">+DC</t>
   </si>
   <si>
@@ -715,9 +722,6 @@
     <t xml:space="preserve">CAN oddělená zem</t>
   </si>
   <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nepřipojeno</t>
   </si>
   <si>
@@ -1553,9 +1557,6 @@
   </si>
   <si>
     <t xml:space="preserve">TERM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nezapojeno</t>
   </si>
   <si>
     <t xml:space="preserve">SEL1</t>
@@ -2046,7 +2047,7 @@
       <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.95"/>
@@ -7322,10 +7323,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7337,13 +7338,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,13 +7352,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,13 +7366,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,13 +7380,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,13 +7394,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,13 +7408,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,13 +7422,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,7 +7439,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>144</v>
@@ -7449,13 +7450,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,10 +7481,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7495,13 +7496,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,13 +7510,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,13 +7524,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,13 +7538,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,13 +7552,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,13 +7566,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,13 +7580,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7610,10 +7639,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7639,13 +7668,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,13 +7682,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7667,13 +7696,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,13 +7710,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,13 +7724,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,13 +7738,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,17 +7766,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,13 +7812,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,13 +7826,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,13 +7840,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,19 +7854,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -7850,17 +7896,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,7 +7920,7 @@
         <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,13 +7928,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,22 +7942,61 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -7927,10 +8012,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7948,49 +8033,35 @@
         <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,17 +8083,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8036,69 +8107,58 @@
         <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -8111,17 +8171,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,13 +8203,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,13 +8217,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8171,22 +8231,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -8202,10 +8273,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8231,10 +8302,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>258</v>
@@ -8245,10 +8316,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>258</v>
@@ -8259,26 +8330,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8304,10 +8361,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8333,13 +8390,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,13 +8404,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,13 +8418,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,13 +8432,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,7 +8466,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.05"/>
@@ -11436,13 +11493,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -11464,14 +11521,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11479,13 +11536,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11493,13 +11550,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11507,41 +11564,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11563,18 +11592,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11595,14 +11623,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
+      <c r="B2" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11610,13 +11638,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,13 +11652,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11638,33 +11666,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
+      <c r="B6" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -11677,17 +11722,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
@@ -11713,10 +11758,10 @@
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11724,13 +11769,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11738,13 +11783,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11752,19 +11797,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -11780,10 +11839,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
@@ -11810,13 +11869,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11824,13 +11883,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11838,13 +11897,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11852,13 +11911,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -11877,13 +11936,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
@@ -11910,13 +11969,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11924,13 +11983,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>271</v>
+      <c r="D5" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -11949,17 +12036,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11981,13 +12069,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11995,73 +12083,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12082,168 +12111,112 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D3" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>231</v>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>231</v>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>231</v>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12265,72 +12238,175 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>302</v>
-      </c>
+      <c r="D11" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12348,17 +12424,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12380,10 +12454,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>303</v>
@@ -12394,10 +12468,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>303</v>
@@ -12408,59 +12482,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12478,15 +12507,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12508,13 +12539,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12522,13 +12553,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12536,14 +12567,59 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>231</v>
-      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12567,7 +12643,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
@@ -12674,17 +12750,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12706,13 +12780,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12720,13 +12794,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12734,59 +12808,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12807,10 +12836,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -12836,13 +12865,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12850,13 +12879,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,13 +12893,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12878,13 +12907,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12892,13 +12921,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12906,13 +12935,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12934,16 +12963,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -12966,13 +12995,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12980,13 +13009,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12994,13 +13023,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13008,13 +13037,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13022,13 +13051,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13036,98 +13065,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>231</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13148,10 +13096,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -13177,13 +13125,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13191,44 +13139,154 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13246,16 +13304,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -13278,13 +13336,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13292,45 +13350,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13351,10 +13408,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -13380,13 +13437,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13394,13 +13451,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13408,13 +13465,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13422,13 +13479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13453,10 +13510,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -13482,13 +13539,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13496,13 +13553,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13510,13 +13567,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13524,13 +13581,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,10 +13612,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -13584,13 +13641,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13598,13 +13655,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13612,13 +13669,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13626,13 +13683,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13654,15 +13711,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13684,13 +13743,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13698,13 +13757,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13712,14 +13771,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13737,17 +13813,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13769,13 +13843,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13783,13 +13857,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13797,96 +13871,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13904,13 +13896,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13931,13 +13928,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13945,13 +13942,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -13970,18 +14009,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14003,13 +14041,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14017,13 +14055,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14031,13 +14069,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14045,14 +14083,82 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14073,14 +14179,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
@@ -14103,13 +14209,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14117,13 +14223,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14131,13 +14237,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14145,13 +14251,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -14170,17 +14276,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14193,16 +14300,22 @@
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>350</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14210,10 +14323,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>350</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14221,10 +14337,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>353</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14232,86 +14351,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>353</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14332,13 +14379,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -14358,10 +14405,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14369,10 +14416,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14380,10 +14427,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14391,10 +14438,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14402,10 +14449,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14413,10 +14460,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14424,10 +14471,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14435,10 +14482,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14446,10 +14493,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14457,10 +14504,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14490,11 +14537,11 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
@@ -14503,60 +14550,124 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>379</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>381</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>382</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -14583,102 +14694,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14696,16 +14789,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14713,7 +14807,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14721,7 +14821,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>386</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14729,7 +14835,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>388</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14737,7 +14849,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14745,7 +14863,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14753,63 +14877,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>227</v>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -14828,17 +14902,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14846,10 +14919,7 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14857,10 +14927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14868,10 +14935,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14879,10 +14943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,10 +14951,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14901,10 +14959,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14912,10 +14967,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14923,10 +14975,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14934,14 +14983,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14962,13 +15037,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -14980,7 +15055,7 @@
         <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14988,10 +15063,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14999,10 +15074,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15010,10 +15085,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15021,10 +15096,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15032,10 +15107,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15043,10 +15118,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15054,10 +15129,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15068,11 +15143,11 @@
         <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15090,18 +15165,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15109,15 +15183,9 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -15126,16 +15194,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15143,16 +15205,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,16 +15216,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15177,16 +15227,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15194,16 +15238,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>393</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15211,16 +15249,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>395</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15228,16 +15260,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15245,88 +15271,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15344,17 +15296,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15375,13 +15323,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15395,287 +15343,7 @@
         <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -15694,13 +15362,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -15713,16 +15381,16 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15730,16 +15398,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15750,13 +15418,13 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15764,16 +15432,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15781,16 +15449,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15798,16 +15466,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15815,16 +15483,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15835,7 +15503,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -15852,7 +15520,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -15866,16 +15534,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>210</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15883,20 +15551,54 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15917,10 +15619,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -15933,16 +15635,16 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15950,16 +15652,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15970,7 +15672,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
@@ -15984,16 +15686,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16001,16 +15703,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16018,16 +15720,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16035,16 +15737,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16055,7 +15757,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -16072,7 +15774,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -16086,16 +15788,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16134,17 +15836,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16152,10 +15855,16 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16163,10 +15872,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16174,10 +15889,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>402</v>
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16185,10 +15906,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>404</v>
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16196,10 +15923,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16207,10 +15940,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>407</v>
+        <v>218</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16218,10 +15957,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>407</v>
+        <v>217</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16229,10 +15974,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>409</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>410</v>
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16240,10 +15991,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>411</v>
+        <v>217</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16251,10 +16008,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>412</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>410</v>
+        <v>211</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16262,32 +16025,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>411</v>
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16309,16 +16056,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16338,10 +16085,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16349,10 +16096,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16360,10 +16107,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>404</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16371,10 +16118,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>406</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16382,10 +16129,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>407</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16393,10 +16140,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>409</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16404,10 +16151,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>410</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16418,7 +16165,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16426,10 +16173,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16437,10 +16184,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>422</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16448,10 +16195,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16459,77 +16206,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>424</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16547,16 +16231,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16576,10 +16260,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16587,10 +16271,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16598,10 +16282,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>436</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16609,10 +16293,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>436</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16620,10 +16304,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>432</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,10 +16315,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16642,10 +16326,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16653,10 +16337,120 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>440</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -16675,16 +16469,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16704,10 +16498,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16715,10 +16509,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16726,10 +16520,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16737,10 +16531,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16748,10 +16542,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16759,10 +16553,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16770,10 +16564,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16781,42 +16575,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16837,13 +16600,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16863,10 +16626,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16874,10 +16637,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16885,10 +16648,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16896,10 +16659,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16907,10 +16670,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16918,10 +16681,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>465</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16929,10 +16692,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16940,17 +16703,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -16977,17 +16756,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17000,22 +16779,16 @@
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17023,13 +16796,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>458</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17037,13 +16807,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17051,13 +16818,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17065,13 +16829,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17079,13 +16840,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17093,17 +16851,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>257</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -17116,6 +16879,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17136,10 +16902,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -17165,13 +16931,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>471</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>472</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17179,29 +16945,84 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>473</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>315</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -17234,18 +17055,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17267,13 +17087,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17281,56 +17101,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17348,16 +17156,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17379,13 +17187,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17393,13 +17201,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17407,13 +17215,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17421,13 +17229,265 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -17446,243 +17506,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>479</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>482</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>485</v>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>486</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>487</v>
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>488</v>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>489</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17700,204 +17620,243 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>509</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>479</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>482</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>485</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
+        <v>488</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
+        <v>491</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>495</v>
+      <c r="A8" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>495</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>517</v>
+      <c r="A10" s="13" t="s">
+        <v>487</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>519</v>
+      <c r="A12" s="13" t="s">
+        <v>484</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>520</v>
+      <c r="A13" s="13" t="s">
+        <v>497</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>522</v>
+      <c r="A14" s="13" t="s">
+        <v>498</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="14"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17915,103 +17874,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>507</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18032,10 +18092,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -18061,13 +18121,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18075,13 +18135,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18089,13 +18149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18103,42 +18163,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>472</v>
+        <v>311</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -18168,10 +18206,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -18197,13 +18235,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18211,13 +18249,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>475</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18225,13 +18263,149 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18268,39 +18442,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>205</v>
+      <c r="D5" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -18319,203 +18540,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18539,7 +18597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -18551,13 +18609,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18565,13 +18623,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18579,13 +18637,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18593,13 +18651,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18607,13 +18665,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18621,13 +18679,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18635,13 +18693,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18649,13 +18707,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18663,13 +18721,69 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>227</v>
+      <c r="C13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="59"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -65,13 +65,13 @@
     <sheet name="X10_CAN_8pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
     <sheet name="X11_FB3_10pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
     <sheet name="X12_UDP_8pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
-    <sheet name="X2_ACIN_7pin_2636" sheetId="58" state="visible" r:id="rId60"/>
-    <sheet name="X6_TGS560_50_DCbus" sheetId="59" state="visible" r:id="rId61"/>
-    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="X1_ACIN_7pin_2636" sheetId="58" state="visible" r:id="rId60"/>
+    <sheet name="X4_TGS560_50_DCbus" sheetId="59" state="visible" r:id="rId61"/>
+    <sheet name="X3_TGS560_24V_5pin_BCZ" sheetId="60" state="visible" r:id="rId62"/>
     <sheet name="S1_TGS560_DIP" sheetId="61" state="visible" r:id="rId63"/>
     <sheet name="LED_TGS560" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X1_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="X4_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
     <sheet name="X5_RBR_3pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
     <sheet name="X0a_48-100-xyz" sheetId="66" state="visible" r:id="rId68"/>
     <sheet name="X0b_48-100-xyz" sheetId="67" state="visible" r:id="rId69"/>
@@ -2095,8 +2095,8 @@
   </sheetPr>
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H190" activeCellId="0" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13304,7 +13304,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -17780,7 +17780,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18386,8 +18386,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="59"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -48,7 +48,7 @@
     <sheet name="X15_BR2_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
     <sheet name="X1_ACIN_PC5" sheetId="39" state="visible" r:id="rId41"/>
     <sheet name="X2_DC_8pin_PC5" sheetId="40" state="visible" r:id="rId42"/>
-    <sheet name="X3_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="X2_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
     <sheet name="X3_24V_BLF_2_5" sheetId="42" state="visible" r:id="rId44"/>
     <sheet name="X5_DI_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
     <sheet name="X10_DO_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
@@ -15056,8 +15056,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17936,7 +17936,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18386,8 +18386,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="53"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="574">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1350,6 +1350,18 @@
     <t xml:space="preserve">RxD-</t>
   </si>
   <si>
+    <t xml:space="preserve">Hengstler Acuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hengstler ACURO link</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIN</t>
   </si>
   <si>
@@ -1797,37 +1809,37 @@
     <t xml:space="preserve">Externí P1000</t>
   </si>
   <si>
-    <t xml:space="preserve">EXC+</t>
+    <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">Buzení resolveru +</t>
   </si>
   <si>
-    <t xml:space="preserve">EXC-</t>
+    <t xml:space="preserve">R1</t>
   </si>
   <si>
     <t xml:space="preserve">Buzení resolveru -</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN+</t>
+    <t xml:space="preserve">S1</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver SIN +</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN-</t>
+    <t xml:space="preserve">S3</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver SIN -</t>
   </si>
   <si>
-    <t xml:space="preserve">COS+</t>
+    <t xml:space="preserve">S2</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver COS +</t>
   </si>
   <si>
-    <t xml:space="preserve">COS-</t>
+    <t xml:space="preserve">S4</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver COS -</t>
@@ -2200,7 +2212,7 @@
   </sheetPr>
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -18033,10 +18045,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18045,6 +18057,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18063,6 +18076,9 @@
       <c r="E1" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
@@ -18080,6 +18096,9 @@
       <c r="E2" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -18097,6 +18116,9 @@
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -18114,6 +18136,9 @@
       <c r="E4" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -18131,6 +18156,9 @@
       <c r="E5" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -18148,6 +18176,9 @@
       <c r="E6" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -18165,6 +18196,9 @@
       <c r="E7" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -18182,6 +18216,9 @@
       <c r="E8" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -18199,6 +18236,9 @@
       <c r="E9" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -18216,6 +18256,9 @@
       <c r="E10" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -18232,6 +18275,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18253,10 +18299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18265,6 +18311,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18283,6 +18330,9 @@
       <c r="E1" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
@@ -18300,6 +18350,9 @@
       <c r="E2" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -18317,6 +18370,9 @@
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -18334,6 +18390,9 @@
       <c r="E4" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -18351,6 +18410,9 @@
       <c r="E5" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -18368,6 +18430,9 @@
       <c r="E6" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -18385,6 +18450,9 @@
       <c r="E7" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -18402,6 +18470,9 @@
       <c r="E8" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -18419,6 +18490,9 @@
       <c r="E9" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -18436,6 +18510,9 @@
       <c r="E10" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -18452,6 +18529,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18502,10 +18582,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18516,7 +18596,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18524,10 +18604,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18535,10 +18615,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18546,10 +18626,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18557,10 +18637,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18568,10 +18648,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18582,7 +18662,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18590,10 +18670,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18604,7 +18684,7 @@
         <v>183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18612,10 +18692,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18626,7 +18706,7 @@
         <v>183</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18648,9 +18728,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -18671,8 +18751,8 @@
       <c r="C1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>422</v>
+      <c r="D1" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18680,13 +18760,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>423</v>
+        <v>413</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18697,10 +18777,10 @@
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>424</v>
+        <v>414</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18708,13 +18788,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18722,13 +18802,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>424</v>
+        <v>416</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18736,13 +18816,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>425</v>
+        <v>419</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18750,13 +18830,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18764,13 +18844,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18778,13 +18858,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18792,13 +18872,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18806,13 +18886,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>428</v>
+        <v>438</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18820,13 +18900,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>428</v>
+        <v>440</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18834,41 +18914,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>428</v>
+        <v>442</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18918,7 +18974,7 @@
         <v>199</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18929,7 +18985,7 @@
         <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18940,7 +18996,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18951,7 +19007,7 @@
         <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18962,7 +19018,7 @@
         <v>191</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18973,7 +19029,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18984,7 +19040,7 @@
         <v>187</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18995,7 +19051,7 @@
         <v>185</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19003,10 +19059,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19014,10 +19070,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19025,10 +19081,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19036,10 +19092,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19050,7 +19106,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19061,7 +19117,7 @@
         <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19072,7 +19128,7 @@
         <v>173</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19083,7 +19139,7 @@
         <v>171</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19094,7 +19150,7 @@
         <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19105,7 +19161,7 @@
         <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -19153,10 +19209,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19164,10 +19220,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19175,10 +19231,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19186,10 +19242,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19197,10 +19253,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19208,10 +19264,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19219,10 +19275,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19230,10 +19286,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -19281,10 +19337,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19292,10 +19348,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19306,7 +19362,7 @@
         <v>407</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19317,7 +19373,7 @@
         <v>406</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19325,10 +19381,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19339,7 +19395,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19347,10 +19403,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19358,10 +19414,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19372,7 +19428,7 @@
         <v>406</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19383,7 +19439,7 @@
         <v>407</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19440,10 +19496,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19451,10 +19507,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19462,10 +19518,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19473,10 +19529,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19484,10 +19540,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19495,10 +19551,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19506,10 +19562,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19517,10 +19573,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20092,10 +20148,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>331</v>
@@ -20106,10 +20162,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>331</v>
@@ -20194,10 +20250,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>144</v>
@@ -20208,10 +20264,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>144</v>
@@ -20302,162 +20358,162 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C18" s="13"/>
       <c r="H18" s="4"/>
@@ -20465,50 +20521,50 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
@@ -20545,118 +20601,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
@@ -20668,30 +20724,30 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="16"/>
@@ -20893,7 +20949,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>266</v>
@@ -20907,7 +20963,7 @@
         <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>266</v>
@@ -20935,7 +20991,7 @@
         <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>266</v>
@@ -20949,7 +21005,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>266</v>
@@ -21134,7 +21190,7 @@
         <v>254</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21148,7 +21204,7 @@
         <v>255</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21162,7 +21218,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21176,7 +21232,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21190,7 +21246,7 @@
         <v>252</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -21243,10 +21299,10 @@
         <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21254,13 +21310,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21271,10 +21327,10 @@
         <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21285,10 +21341,10 @@
         <v>233</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21299,10 +21355,10 @@
         <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21316,7 +21372,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21327,10 +21383,10 @@
         <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21344,7 +21400,7 @@
         <v>146</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21355,10 +21411,10 @@
         <v>327</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21369,10 +21425,10 @@
         <v>325</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21418,7 +21474,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21444,10 +21500,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21455,10 +21511,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21466,10 +21522,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21477,10 +21533,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21488,10 +21544,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21499,10 +21555,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21513,7 +21569,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21524,7 +21580,7 @@
         <v>160</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="51"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -975,13 +975,13 @@
     <t xml:space="preserve">+24V DC napájení brzdy</t>
   </si>
   <si>
+    <t xml:space="preserve">+ Brzda servomotoru</t>
+  </si>
+  <si>
     <t xml:space="preserve">VCCD</t>
   </si>
   <si>
     <t xml:space="preserve">+24V DC napájení diag. brzdy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Brzda servomotoru</t>
   </si>
   <si>
     <t xml:space="preserve">- Brzda servomotoru</t>
@@ -14235,10 +14235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14282,10 +14282,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>279</v>
@@ -14296,7 +14296,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>285</v>
@@ -14318,6 +14318,10 @@
       <c r="D5" s="4" t="s">
         <v>279</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18301,7 +18305,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/docs/Manual/source/tab/connectors.xlsx
+++ b/docs/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -41,42 +41,43 @@
     <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="31" state="visible" r:id="rId33"/>
     <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="32" state="visible" r:id="rId34"/>
     <sheet name="X2_PWR_12pin_BLZ" sheetId="33" state="visible" r:id="rId35"/>
-    <sheet name="X2_D560DCbus" sheetId="34" state="visible" r:id="rId36"/>
-    <sheet name="X3_M1_4pin_wago_2636" sheetId="35" state="visible" r:id="rId37"/>
-    <sheet name="X4_M2_4pin_wago_2636" sheetId="36" state="visible" r:id="rId38"/>
-    <sheet name="X14_BR1_4pin_LSF" sheetId="37" state="visible" r:id="rId39"/>
-    <sheet name="X15_BR2_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
-    <sheet name="X1_ACIN_PC5" sheetId="39" state="visible" r:id="rId41"/>
-    <sheet name="X2_DC_8pin_PC5" sheetId="40" state="visible" r:id="rId42"/>
-    <sheet name="X2_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
-    <sheet name="X3_24V_BLF_2_5" sheetId="42" state="visible" r:id="rId44"/>
-    <sheet name="X5_DI_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
-    <sheet name="X10_DO_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
-    <sheet name="S1_SWITCH_CAN" sheetId="45" state="visible" r:id="rId47"/>
-    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="46" state="visible" r:id="rId48"/>
-    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="47" state="visible" r:id="rId49"/>
-    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
-    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="49" state="visible" r:id="rId51"/>
-    <sheet name="X4_FBE_12pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
-    <sheet name="X5_FB1_10pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
-    <sheet name="X6_FB2_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
-    <sheet name="X7_AIN_12pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
-    <sheet name="X7_AIN_HALL_12pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
-    <sheet name="X8_DIO_18pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
-    <sheet name="X10_CAN_8pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
-    <sheet name="X11_FB3_10pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
-    <sheet name="X12_UDP_8pin_ClikMate" sheetId="58" state="visible" r:id="rId60"/>
-    <sheet name="X1_ACIN_7pin_2636" sheetId="59" state="visible" r:id="rId61"/>
-    <sheet name="X4_TGS560_50_DCbus" sheetId="60" state="visible" r:id="rId62"/>
-    <sheet name="X3_TGS560_24V_5pin_BCZ" sheetId="61" state="visible" r:id="rId63"/>
-    <sheet name="S1_TGS560_DIP" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="LED_TGS560" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X1_ACIN_4pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
-    <sheet name="X4_DC_6pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
-    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="66" state="visible" r:id="rId68"/>
-    <sheet name="X0a_48-100-xyz" sheetId="67" state="visible" r:id="rId69"/>
-    <sheet name="X0b_48-100-xyz" sheetId="68" state="visible" r:id="rId70"/>
-    <sheet name="X16_RES_8pin_ClikMate" sheetId="69" state="visible" r:id="rId71"/>
+    <sheet name="X2_PWR_DC_12pin_BLZ" sheetId="34" state="visible" r:id="rId36"/>
+    <sheet name="X2_D560DCbus" sheetId="35" state="visible" r:id="rId37"/>
+    <sheet name="X3_M1_4pin_wago_2636" sheetId="36" state="visible" r:id="rId38"/>
+    <sheet name="X4_M2_4pin_wago_2636" sheetId="37" state="visible" r:id="rId39"/>
+    <sheet name="X14_BR1_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
+    <sheet name="X15_BR2_4pin_LSF" sheetId="39" state="visible" r:id="rId41"/>
+    <sheet name="X1_ACIN_PC5" sheetId="40" state="visible" r:id="rId42"/>
+    <sheet name="X2_DC_8pin_PC5" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="X2_DO_4pin_BCZ" sheetId="42" state="visible" r:id="rId44"/>
+    <sheet name="X3_24V_BLF_2_5" sheetId="43" state="visible" r:id="rId45"/>
+    <sheet name="X5_DI_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
+    <sheet name="X10_DO_10pin_B2CF" sheetId="45" state="visible" r:id="rId47"/>
+    <sheet name="S1_SWITCH_CAN" sheetId="46" state="visible" r:id="rId48"/>
+    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="47" state="visible" r:id="rId49"/>
+    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
+    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="49" state="visible" r:id="rId51"/>
+    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="50" state="visible" r:id="rId52"/>
+    <sheet name="X4_FBE_12pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
+    <sheet name="X5_FB1_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
+    <sheet name="X6_FB2_10pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
+    <sheet name="X7_AIN_12pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
+    <sheet name="X7_AIN_HALL_12pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
+    <sheet name="X8_DIO_18pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
+    <sheet name="X10_CAN_8pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
+    <sheet name="X11_FB3_10pin_ClikMate" sheetId="58" state="visible" r:id="rId60"/>
+    <sheet name="X12_UDP_8pin_ClikMate" sheetId="59" state="visible" r:id="rId61"/>
+    <sheet name="X1_ACIN_7pin_2636" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="X4_TGS560_50_DCbus" sheetId="61" state="visible" r:id="rId63"/>
+    <sheet name="X3_TGS560_24V_5pin_BCZ" sheetId="62" state="visible" r:id="rId64"/>
+    <sheet name="S1_TGS560_DIP" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="LED_TGS560" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_ACIN_4pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
+    <sheet name="X4_DC_6pin_TGS560_25" sheetId="66" state="visible" r:id="rId68"/>
+    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="67" state="visible" r:id="rId69"/>
+    <sheet name="X0a_48-100-xyz" sheetId="68" state="visible" r:id="rId70"/>
+    <sheet name="X0b_48-100-xyz" sheetId="69" state="visible" r:id="rId71"/>
+    <sheet name="X16_RES_8pin_ClikMate" sheetId="70" state="visible" r:id="rId72"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="595">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1153,6 +1154,21 @@
   </si>
   <si>
     <t xml:space="preserve">-Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+DCIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení meziobvodu (vstup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení meziobvodu (bez softstartu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-DCIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Napájení meziobvodu (vstup)</t>
   </si>
   <si>
     <t xml:space="preserve">-DC IN</t>
@@ -2000,7 +2016,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2037,10 +2053,6 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2051,10 +2063,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4023,7 +4031,7 @@
       <c r="F65" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H65" s="4" t="s">
@@ -4367,7 +4375,7 @@
       <c r="F78" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="G78" s="9"/>
+      <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
         <v>17</v>
       </c>
@@ -4393,7 +4401,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="4" t="s">
         <v>19</v>
       </c>
@@ -4419,7 +4427,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="3"/>
       <c r="H80" s="4" t="s">
         <v>21</v>
       </c>
@@ -4445,7 +4453,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="4" t="s">
         <v>23</v>
       </c>
@@ -4471,7 +4479,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="4" t="s">
         <v>25</v>
       </c>
@@ -4497,7 +4505,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="9"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="4" t="s">
         <v>27</v>
       </c>
@@ -4523,7 +4531,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="9"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="4" t="s">
         <v>29</v>
       </c>
@@ -4549,7 +4557,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="9"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="4" t="s">
         <v>31</v>
       </c>
@@ -4577,7 +4585,7 @@
       <c r="F86" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G86" s="9"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="4" t="s">
         <v>17</v>
       </c>
@@ -4603,7 +4611,7 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="9"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
         <v>19</v>
       </c>
@@ -4629,7 +4637,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="9"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +4663,7 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="9"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
         <v>23</v>
       </c>
@@ -4681,7 +4689,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="9"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
         <v>25</v>
       </c>
@@ -4707,7 +4715,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="9"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
         <v>27</v>
       </c>
@@ -4733,7 +4741,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="9"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
         <v>29</v>
       </c>
@@ -4759,7 +4767,7 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="9"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
         <v>31</v>
       </c>
@@ -4787,7 +4795,7 @@
       <c r="F94" s="5" t="n">
         <v>450</v>
       </c>
-      <c r="G94" s="9"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
         <v>17</v>
       </c>
@@ -4813,7 +4821,7 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="9"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
         <v>19</v>
       </c>
@@ -4839,7 +4847,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="9"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="4" t="s">
         <v>21</v>
       </c>
@@ -4865,7 +4873,7 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="9"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="4" t="s">
         <v>23</v>
       </c>
@@ -4891,7 +4899,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="9"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="4" t="s">
         <v>25</v>
       </c>
@@ -4917,7 +4925,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="9"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="4" t="s">
         <v>27</v>
       </c>
@@ -4943,7 +4951,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="9"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="4" t="s">
         <v>29</v>
       </c>
@@ -4969,7 +4977,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="9"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="4" t="s">
         <v>31</v>
       </c>
@@ -7902,7 +7910,7 @@
       <c r="I213" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J213" s="10" t="s">
+      <c r="J213" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K213" s="7" t="str">
@@ -8137,7 +8145,7 @@
       <c r="I222" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J222" s="10" t="s">
+      <c r="J222" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K222" s="7" t="str">
@@ -8372,7 +8380,7 @@
       <c r="I231" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J231" s="10" t="s">
+      <c r="J231" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K231" s="7" t="str">
@@ -9827,7 +9835,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9985,7 +9993,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10115,7 +10123,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10245,7 +10253,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10432,7 +10440,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10520,7 +10528,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10707,7 +10715,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10809,7 +10817,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10829,7 +10837,7 @@
   </sheetPr>
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -10842,7 +10850,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10920,7 +10928,7 @@
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -10946,7 +10954,7 @@
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -10972,7 +10980,7 @@
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -10998,7 +11006,7 @@
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -11024,7 +11032,7 @@
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -11050,7 +11058,7 @@
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11076,7 +11084,7 @@
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -11102,7 +11110,7 @@
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -11128,7 +11136,7 @@
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -11154,7 +11162,7 @@
       <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -11180,7 +11188,7 @@
       <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -11206,7 +11214,7 @@
       <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -11232,7 +11240,7 @@
       <c r="A16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -11258,7 +11266,7 @@
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -11356,7 +11364,7 @@
       <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -11379,7 +11387,7 @@
       <c r="A22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -11402,7 +11410,7 @@
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -11425,7 +11433,7 @@
       <c r="A24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -11448,7 +11456,7 @@
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -11471,7 +11479,7 @@
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -11494,7 +11502,7 @@
       <c r="A27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -11517,7 +11525,7 @@
       <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -11540,7 +11548,7 @@
       <c r="A29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -11563,7 +11571,7 @@
       <c r="A30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -11586,7 +11594,7 @@
       <c r="A31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -11609,7 +11617,7 @@
       <c r="A32" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -11816,7 +11824,7 @@
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -11839,7 +11847,7 @@
       <c r="A42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -11862,7 +11870,7 @@
       <c r="A43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -11885,7 +11893,7 @@
       <c r="A44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -11931,7 +11939,7 @@
       <c r="A46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -12000,7 +12008,7 @@
       <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -12023,7 +12031,7 @@
       <c r="A50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -12308,7 +12316,7 @@
       <c r="A63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="13" t="n">
+      <c r="B63" s="7" t="n">
         <v>5055700401</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -12328,7 +12336,6 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -12343,7 +12350,6 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -12358,7 +12364,6 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -12373,7 +12378,6 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -12388,7 +12392,6 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -12403,7 +12406,6 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -12418,7 +12420,6 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -12433,7 +12434,6 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -12448,7 +12448,6 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -12463,7 +12462,6 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -12478,7 +12476,6 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -12493,7 +12490,6 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -14308,7 +14304,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14357,7 +14353,7 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>281</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -14413,7 +14409,7 @@
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>288</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -14427,7 +14423,7 @@
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>290</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -14438,7 +14434,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14954,7 +14950,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14986,161 +14982,161 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15353,7 +15349,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15679,7 +15675,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15809,7 +15805,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15830,7 +15826,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16034,6 +16030,217 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16070,13 +16277,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16084,13 +16291,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16164,7 +16371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16253,7 +16460,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16266,7 +16473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16355,7 +16562,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16368,7 +16575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16408,10 +16615,10 @@
         <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16422,10 +16629,10 @@
         <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16433,13 +16640,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16447,17 +16654,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16470,7 +16677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16510,10 +16717,10 @@
         <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16524,10 +16731,10 @@
         <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16535,13 +16742,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16549,100 +16756,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16773,6 +16897,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -16805,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>315</v>
@@ -16819,7 +17026,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>317</v>
@@ -16833,7 +17040,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>257</v>
@@ -16847,7 +17054,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>336</v>
@@ -16861,7 +17068,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>311</v>
@@ -16875,7 +17082,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>313</v>
@@ -16889,7 +17096,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>320</v>
@@ -16903,7 +17110,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>322</v>
@@ -16913,16 +17120,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16935,7 +17142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16973,10 +17180,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>158</v>
@@ -16987,10 +17194,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
@@ -17001,10 +17208,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>158</v>
@@ -17015,10 +17222,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -17035,7 +17242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17073,13 +17280,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17087,13 +17294,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17101,13 +17308,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17115,13 +17322,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -17135,7 +17342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17169,7 +17376,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>214</v>
@@ -17180,7 +17387,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>212</v>
@@ -17191,7 +17398,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>210</v>
@@ -17202,7 +17409,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>208</v>
@@ -17213,7 +17420,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>206</v>
@@ -17224,7 +17431,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>204</v>
@@ -17235,7 +17442,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>202</v>
@@ -17246,7 +17453,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>200</v>
@@ -17257,10 +17464,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17268,10 +17475,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17281,7 +17488,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17294,7 +17501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17328,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>214</v>
@@ -17339,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>212</v>
@@ -17350,7 +17557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>210</v>
@@ -17361,7 +17568,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>208</v>
@@ -17372,7 +17579,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>206</v>
@@ -17383,7 +17590,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>204</v>
@@ -17394,7 +17601,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>202</v>
@@ -17405,7 +17612,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>200</v>
@@ -17416,10 +17623,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17427,10 +17634,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17440,7 +17647,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17453,7 +17660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17473,10 +17680,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>154</v>
@@ -17484,24 +17691,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17535,7 +17742,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17548,7 +17755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17585,10 +17792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>158</v>
@@ -17599,10 +17806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
@@ -17616,7 +17823,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>158</v>
@@ -17661,7 +17868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17793,7 +18000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17911,138 +18118,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="4" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18126,6 +18202,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="4" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="12"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -18154,7 +18361,7 @@
         <v>230</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18196,7 +18403,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>84</v>
@@ -18205,7 +18412,7 @@
         <v>247</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18213,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>84</v>
@@ -18222,7 +18429,7 @@
         <v>245</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18230,7 +18437,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>239</v>
@@ -18239,7 +18446,7 @@
         <v>243</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18247,7 +18454,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>238</v>
@@ -18256,7 +18463,7 @@
         <v>241</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18307,7 +18514,7 @@
         <v>237</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18324,7 +18531,7 @@
         <v>235</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18362,261 +18569,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.22"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18646,7 +18599,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18663,10 +18616,10 @@
         <v>230</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18686,7 +18639,7 @@
         <v>249</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18706,7 +18659,7 @@
         <v>165</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18714,7 +18667,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>84</v>
@@ -18723,7 +18676,7 @@
         <v>247</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>84</v>
@@ -18734,7 +18687,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>84</v>
@@ -18743,7 +18696,7 @@
         <v>245</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>84</v>
@@ -18754,7 +18707,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>239</v>
@@ -18763,7 +18716,7 @@
         <v>243</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>242</v>
@@ -18774,7 +18727,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>238</v>
@@ -18783,7 +18736,7 @@
         <v>241</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>240</v>
@@ -18870,7 +18823,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18884,6 +18837,260 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="12"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -18917,10 +19124,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18931,7 +19138,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18939,10 +19146,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18950,10 +19157,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18961,10 +19168,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18972,10 +19179,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18983,10 +19190,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18997,7 +19204,7 @@
         <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19005,10 +19212,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19019,7 +19226,7 @@
         <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19027,10 +19234,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19041,11 +19248,11 @@
         <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19058,7 +19265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19087,7 +19294,7 @@
         <v>154</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19095,13 +19302,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19112,10 +19319,10 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19123,13 +19330,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19137,13 +19344,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19151,13 +19358,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19165,13 +19372,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19179,13 +19386,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19193,13 +19400,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19207,13 +19414,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19221,13 +19428,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19235,13 +19442,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19249,17 +19456,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19272,7 +19479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19309,7 +19516,7 @@
         <v>213</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19320,7 +19527,7 @@
         <v>211</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19331,7 +19538,7 @@
         <v>209</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19342,7 +19549,7 @@
         <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19353,7 +19560,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19364,7 +19571,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19375,7 +19582,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19386,7 +19593,7 @@
         <v>199</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19394,10 +19601,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19405,10 +19612,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19416,10 +19623,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19427,10 +19634,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19441,7 +19648,7 @@
         <v>191</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19452,7 +19659,7 @@
         <v>189</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19463,7 +19670,7 @@
         <v>187</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19474,7 +19681,7 @@
         <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19485,7 +19692,7 @@
         <v>183</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19496,7 +19703,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -19510,7 +19717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19544,10 +19751,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19555,10 +19762,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19566,10 +19773,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19577,10 +19784,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19588,10 +19795,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19599,10 +19806,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19610,10 +19817,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19621,10 +19828,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -19638,7 +19845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19672,10 +19879,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19683,10 +19890,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19694,10 +19901,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19705,10 +19912,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19716,10 +19923,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19730,7 +19937,7 @@
         <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19738,10 +19945,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19749,10 +19956,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19760,10 +19967,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19771,10 +19978,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19784,7 +19991,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19797,7 +20004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19831,10 +20038,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19842,10 +20049,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19853,10 +20060,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19864,10 +20071,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19875,10 +20082,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19886,10 +20093,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19897,10 +20104,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19908,10 +20115,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19927,163 +20134,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20454,6 +20505,162 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -20483,13 +20690,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20497,13 +20704,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20547,7 +20754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -20585,10 +20792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>158</v>
@@ -20599,10 +20806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
@@ -20661,7 +20868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -20682,10 +20889,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>154</v>
@@ -20693,216 +20900,216 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>531</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>540</v>
+      <c r="A11" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>528</v>
+      <c r="A12" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>541</v>
+      <c r="A13" s="15" t="s">
+        <v>546</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>542</v>
+      <c r="A14" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>543</v>
+      <c r="A15" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>525</v>
+      <c r="A16" s="15" t="s">
+        <v>530</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>545</v>
+      <c r="A18" s="15" t="s">
+        <v>550</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C18" s="14"/>
+        <v>544</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>546</v>
+      <c r="A19" s="15" t="s">
+        <v>551</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>547</v>
+      <c r="A20" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>548</v>
+      <c r="A21" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>549</v>
+      <c r="A22" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>550</v>
+      <c r="A23" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20915,7 +21122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -20936,188 +21143,188 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="4"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="4"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="4"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="4"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="4"/>
-      <c r="J19" s="17"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="4"/>
-      <c r="J20" s="17"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -21130,7 +21337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21244,7 +21451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21284,7 +21491,7 @@
         <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>280</v>
@@ -21298,7 +21505,7 @@
         <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>280</v>
@@ -21326,7 +21533,7 @@
         <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>280</v>
@@ -21340,7 +21547,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>280</v>
@@ -21380,7 +21587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21483,7 +21690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21525,7 +21732,7 @@
         <v>268</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21539,7 +21746,7 @@
         <v>269</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21553,7 +21760,7 @@
         <v>270</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21567,7 +21774,7 @@
         <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21581,7 +21788,7 @@
         <v>266</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -21595,7 +21802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21634,10 +21841,10 @@
         <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21645,13 +21852,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21662,10 +21869,10 @@
         <v>245</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21676,10 +21883,10 @@
         <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21690,10 +21897,10 @@
         <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21707,7 +21914,7 @@
         <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21718,10 +21925,10 @@
         <v>156</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21735,7 +21942,7 @@
         <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21746,10 +21953,10 @@
         <v>341</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21760,10 +21967,10 @@
         <v>339</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21789,149 +21996,6 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22030,6 +22094,149 @@
       <c r="D5" s="4" t="s">
         <v>176</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22294,7 +22501,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
